--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ณ(6).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ณ(6).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F8B63-CA01-474A-A3FD-697CA9CE9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{6D7F8B63-CA01-474A-A3FD-697CA9CE9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB7EC8D3-55F6-49A3-847B-A00CFBCF1FD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2460" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>headword</t>
   </si>
@@ -52,15 +52,9 @@
     <t>เณรหางนาค</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๙ เรียกว่า ณอ เณร เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น คุณ บัณฑิต.</t>
-  </si>
-  <si>
     <t>บ. ใน, ที่, เป็นคำบ่งเวลาหรือสถานที่ว่า ตรงนั้นตรงนี้, เช่น ณ ที่นั้น ณ ห้องประชุม, ถ้าใช้นำหน้าสกุล หมายความว่า แห่ง เช่น ณ อยุธยา ณ เชียงใหม่ ณ นคร.</t>
   </si>
   <si>
-    <t>ก. ต่อสู้ชิงชัย เช่น อนึ่งภูษาทรงณรงค์รบ ให้มีครบเครื่องเสร็จทั้งเจ็ดสี (สวัสดิรักษา).; น. การรบ, การต่อสู้.</t>
-  </si>
-  <si>
     <t>น. สามเณร.</t>
   </si>
   <si>
@@ -77,13 +71,22 @@
   </si>
   <si>
     <t xml:space="preserve">แม่คำของ "เณรหางนาค" คือ เณร </t>
+  </si>
+  <si>
+    <t>ก. ต่อสู้ชิงชัย เช่น อนึ่งภูษาทรงณรงค์รบ ให้มีครบเครื่องเสร็จทั้งเจ็ดสี (สวัสดิรักษา).</t>
+  </si>
+  <si>
+    <t>น. การรบ, การต่อสู้.</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๙ เรียกว่า ณอ เณร เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากนหรือแม่กน เช่น คุณ บัณฑิต.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,11 +96,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,21 +457,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,70 +485,78 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.6">
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.6">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
